--- a/Docs/git_packages.xlsx
+++ b/Docs/git_packages.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kschool\tidyviz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmvera/Documents/repositorios/tidyviz/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7BB376-6638-2F4E-B2EC-BE7F727F80C7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="18440" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="208">
   <si>
     <t>Package</t>
   </si>
@@ -55,18 +56,6 @@
   </si>
   <si>
     <t>https://github.com/hadley/precis</t>
-  </si>
-  <si>
-    <t>dgrtwo/gganimate</t>
-  </si>
-  <si>
-    <t>Create easy animations with ggplot2.</t>
-  </si>
-  <si>
-    <t>gganimate wraps the animation package to create animated ggplot2 plots. The core of the approach is to treat frame (as in, the time point within an animation) as another aesthetic, just like x, y, size, color, or so on. Thus, a variable in your data can be mapped to frame just as others are mapped to x or y.</t>
-  </si>
-  <si>
-    <t>https://github.com/dgrtwo/gganimate</t>
   </si>
   <si>
     <t>rstats-db/RPostgres</t>
@@ -103,18 +92,6 @@
     <t>https://github.com/yihui/printr</t>
   </si>
   <si>
-    <t>hrbrmstr/hrbrthemes</t>
-  </si>
-  <si>
-    <t>Opinionated, typographic-centric ggplot2 themes and theme components</t>
-  </si>
-  <si>
-    <t>This is a very focused package that provides typography-centric themes and theme components for ggplot2. It's a an extract/riff of hrbrmisc created by request.</t>
-  </si>
-  <si>
-    <t>https://github.com/hrbrmstr/hrbrthemes</t>
-  </si>
-  <si>
     <t>hafen/geofacet</t>
   </si>
   <si>
@@ -217,31 +194,6 @@
     <t>https://github.com/ThinkRstat/littleboxes</t>
   </si>
   <si>
-    <t>thomasp85/lime</t>
-  </si>
-  <si>
-    <t>Local Interpretable Model-Agnostic Explanations (R port of original Python package)</t>
-  </si>
-  <si>
-    <t>This is an R port of the Python lime package (https://github.com/marcotcr/lime) developed by the authors of the lime (Local Interpretable Model-agnostic Explanations) approach for black-box model explanations. All credits goes to the original developers.
-      The purpose of lime is to explain the predictions of black box classifiers. What this means is that for any given prediction and any given classifier it is able to determine a small set of features in the original data that has driven the outcome of the prediction. To learn more about the methodology of lime read the paper and visit the repository of the original implementation.</t>
-  </si>
-  <si>
-    <t>https://github.com/thomasp85/lime</t>
-  </si>
-  <si>
-    <t>rstudio/blogdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create Blogs and Websites with R Markdown </t>
-  </si>
-  <si>
-    <t>A open-source (GPL-3) R package to generate static websites based on R Markdown and Hugo.</t>
-  </si>
-  <si>
-    <t>https://github.com/rstudio/blogdown</t>
-  </si>
-  <si>
     <t>nacnudus/unpivotr</t>
   </si>
   <si>
@@ -282,27 +234,6 @@
   </si>
   <si>
     <t>http://o2r.info/2017/05/30/containerit-package/</t>
-  </si>
-  <si>
-    <t>krlmlr/here</t>
-  </si>
-  <si>
-    <t>A simple interface to rprojroot.</t>
-  </si>
-  <si>
-    <t>https://krlmlr.github.io/here/</t>
-  </si>
-  <si>
-    <t>krlmlr/rprojroot</t>
-  </si>
-  <si>
-    <t>Finding files in project subdirectories.</t>
-  </si>
-  <si>
-    <t>This package helps accessing files relative to a project root to stop the working directory insanity.</t>
-  </si>
-  <si>
-    <t>https://krlmlr.github.io/rprojroot</t>
   </si>
   <si>
     <t>ropenscilabs/packagemetrics</t>
@@ -364,18 +295,6 @@
     <t>https://github.com/ropenscilabs/data-packages</t>
   </si>
   <si>
-    <t>hrbrmstr/waffle</t>
-  </si>
-  <si>
-    <t>waffle is a package to make waffle charts (square pie charts)</t>
-  </si>
-  <si>
-    <t>waffle is a package to make waffle charts (square pie charts). It uses ggplot2 and returns a ggplot2 object.</t>
-  </si>
-  <si>
-    <t>https://github.com/hrbrmstr/waffle/tree/cran</t>
-  </si>
-  <si>
     <t>MangoTheCat/goodpractice</t>
   </si>
   <si>
@@ -385,30 +304,6 @@
     <t>https://github.com/MangoTheCat/goodpractice</t>
   </si>
   <si>
-    <t>hadley/pkgdown</t>
-  </si>
-  <si>
-    <t>pkgdown is designed to make it quick and easy to build a website for your package.</t>
-  </si>
-  <si>
-    <t>You can see pkgdown in action at http://hadley.github.io/pkgdown/: this is the output of pkgdown applied to the latest version of pkgdown. Learn more in vignette(pkgdown) or ?build_site.</t>
-  </si>
-  <si>
-    <t>https://github.com/hadley/pkgdown</t>
-  </si>
-  <si>
-    <t>stefanedwards/lemon</t>
-  </si>
-  <si>
-    <t>Just another ggplot2 and knitr extension package.</t>
-  </si>
-  <si>
-    <t>Axis lines, repeated axis lines on facets, legends, knitr...</t>
-  </si>
-  <si>
-    <t>https://github.com/stefanedwards/lemon</t>
-  </si>
-  <si>
     <t>hadley/strict</t>
   </si>
   <si>
@@ -421,18 +316,6 @@
     <t>https://github.com/hadley/strict</t>
   </si>
   <si>
-    <t>clauswilke/ggjoy</t>
-  </si>
-  <si>
-    <t>Geoms to make joy plots using ggplot2, written by Claus O. Wilke</t>
-  </si>
-  <si>
-    <t>Geoms to make joy plots using ggplot2.</t>
-  </si>
-  <si>
-    <t>https://github.com/clauswilke/ggjoy</t>
-  </si>
-  <si>
     <t>available helps you name your R package. Checks for validity. Checks not already available on GitHub, CRAN and Bioconductor. Searches Urban Dictionary, Wiktionary and Wikipedia for unintended meanings. Can suggest possible names based on text in the package title or description.</t>
   </si>
   <si>
@@ -448,30 +331,6 @@
     <t>https://github.com/Stan125/GREA</t>
   </si>
   <si>
-    <t>tarakc02/rmapzen</t>
-  </si>
-  <si>
-    <t>R client for the Mapzen API</t>
-  </si>
-  <si>
-    <t>rmapzen is a client for the Mapzen API. For an introduction, detailed examples, and installation instructions, see: https://tarakc02.github.io/rmapzen/. For more information about the Mapzen API, see https://mapzen.com/documentation/.</t>
-  </si>
-  <si>
-    <t>https://github.com/tarakc02/rmapzen</t>
-  </si>
-  <si>
-    <t>lchiffon/wordcloud2</t>
-  </si>
-  <si>
-    <t>R interface to wordcloud for data visualization.</t>
-  </si>
-  <si>
-    <t>This package provides an HTML5 interface to wordcloud for data visualization. Timdream’s wordcloud2.js is used in this package.</t>
-  </si>
-  <si>
-    <t>https://cran.r-project.org/web/packages/wordcloud2/vignettes/wordcloud.html</t>
-  </si>
-  <si>
     <t>bhaskarvk/leaflet.extras</t>
   </si>
   <si>
@@ -496,36 +355,15 @@
     <t>http://giorasimchoni.com/2017/07/30/2017-07-30-data-paintings-the-kandinsky-package/</t>
   </si>
   <si>
-    <t>business-science/sweep</t>
-  </si>
-  <si>
-    <t>An implementation of the biplot using ggplot2.</t>
-  </si>
-  <si>
-    <t>The sweep package extends the broom tools (tidy, glance, and augment) for performing forecasts and time series analysis in the tidyverse. The package is geared towards tidying the forecast workflow used with Rob Hyndman's forecast package</t>
-  </si>
-  <si>
-    <t>https://github.com/business-science/sweep</t>
-  </si>
-  <si>
     <t>edgararuiz/dbplot</t>
   </si>
   <si>
-    <t>Extending broom to time series forecasting</t>
-  </si>
-  <si>
-    <t>It implements the principles laid out in the Creating Visualizations page, and it provides three types of functions:Helper functions that return a ggplot2 visualization, Helper functions that return the results of the plot’s calculations,The db_bin() function introduced in the Creating Visualizations page.The package provides calculations or “base” ggplot2 visualizations for the following:Bar plot,Line plot,Histogram,Raster</t>
-  </si>
-  <si>
     <t>https://github.com/edgararuiz/dbplot</t>
   </si>
   <si>
     <t>MilesMcBain/gistfo</t>
   </si>
   <si>
-    <t>Collect multiple functions for in-database visualization code.</t>
-  </si>
-  <si>
     <t>Turn your RStudio untitled tabs into gists.</t>
   </si>
   <si>
@@ -541,18 +379,6 @@
     <t>https://github.com/vqv/ggbiplot</t>
   </si>
   <si>
-    <t>EmilHvitfeldt/ggpage</t>
-  </si>
-  <si>
-    <t>ggpage is a package to create pagestyled visualizations of text based data. It uses ggplot2 and final returns are ggplot2 objects.</t>
-  </si>
-  <si>
-    <t>The basic workflow with ggpage is using either ggpage_quick for a quick one function call plot or, combining ggpage_build and ggpage_plot to do analysis (NLP for example) before the final plot is produced. For a simple demontration we apply ggpage_quick to our tinderbox object.</t>
-  </si>
-  <si>
-    <t>https://github.com/EmilHvitfeldt/ggpage</t>
-  </si>
-  <si>
     <t>hrbrmstr/msgxtractr</t>
   </si>
   <si>
@@ -695,24 +521,6 @@
   </si>
   <si>
     <t>https://github.com/rich-iannone/blastula</t>
-  </si>
-  <si>
-    <t>datacamp/RDocumentation</t>
-  </si>
-  <si>
-    <t>Enhance the search/help functionality in R with Rdocumentation.org</t>
-  </si>
-  <si>
-    <t>http://Rdocumentation.org</t>
-  </si>
-  <si>
-    <t>The R Package to have X Ray vision on your datasets. This package lets you analyze the variables of a dataset, to evaluate how is the shape of your data. Consider this the first step when you have your data for modeling, you can use this package to analyze all variables and check if there is anything weird worth transforming or even avoiding the variable altogether.</t>
-  </si>
-  <si>
-    <t>https://github.com/sicarul/xray</t>
-  </si>
-  <si>
-    <t>sicarul/xray</t>
   </si>
   <si>
     <r>
@@ -1051,47 +859,26 @@
     <t>Create your own color palette</t>
   </si>
   <si>
-    <t>edwinth/paletti</t>
-  </si>
-  <si>
-    <t>rtweet</t>
-  </si>
-  <si>
-    <t>Required for tweetRcode addin to work</t>
-  </si>
-  <si>
-    <t>ggstance</t>
-  </si>
-  <si>
-    <t>ggstance implements horizontal versions of common ggplot2 Geoms, Stats, and Positions. Required for brmstools</t>
-  </si>
-  <si>
-    <t>Search for packages and functions inside Rstudio</t>
-  </si>
-  <si>
-    <t>DataExplorer</t>
-  </si>
-  <si>
-    <t>Preliminary Data Exploration</t>
+    <t>EdwinTh/paletti</t>
+  </si>
+  <si>
+    <t>Draw biplots</t>
+  </si>
+  <si>
+    <t>Convert your tabs to gists</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF24292E"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -1162,25 +949,24 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1478,13 +1264,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="50.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="50.5" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -1533,18 +1319,18 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -1662,158 +1448,158 @@
         <v>48</v>
       </c>
       <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
         <v>49</v>
-      </c>
-      <c r="D13" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
         <v>51</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>52</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>53</v>
-      </c>
-      <c r="D14" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
         <v>55</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
         <v>56</v>
-      </c>
-      <c r="C15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
         <v>58</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>59</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>60</v>
-      </c>
-      <c r="D16" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
         <v>62</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
         <v>63</v>
-      </c>
-      <c r="C17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" t="s">
         <v>65</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>66</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>67</v>
-      </c>
-      <c r="D18" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" t="s">
         <v>69</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" t="s">
         <v>70</v>
-      </c>
-      <c r="C19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" t="s">
         <v>73</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" t="s">
         <v>74</v>
-      </c>
-      <c r="C20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" t="s">
         <v>77</v>
       </c>
-      <c r="B21" t="s">
+      <c r="D21" t="s">
         <v>78</v>
-      </c>
-      <c r="C21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" t="s">
         <v>80</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" t="s">
         <v>81</v>
-      </c>
-      <c r="C22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" t="s">
         <v>84</v>
       </c>
-      <c r="B23" t="s">
+      <c r="D23" t="s">
         <v>85</v>
-      </c>
-      <c r="C23" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" t="s">
         <v>87</v>
-      </c>
-      <c r="B24" t="s">
-        <v>88</v>
       </c>
       <c r="C24" t="s">
         <v>88</v>
@@ -1830,197 +1616,197 @@
         <v>91</v>
       </c>
       <c r="C25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" t="s">
         <v>92</v>
-      </c>
-      <c r="D25" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" t="s">
         <v>94</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>95</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>96</v>
-      </c>
-      <c r="D26" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D27" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" t="s">
         <v>105</v>
-      </c>
-      <c r="B29" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29" t="s">
-        <v>107</v>
-      </c>
-      <c r="D29" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" t="s">
         <v>109</v>
-      </c>
-      <c r="B30" t="s">
-        <v>110</v>
-      </c>
-      <c r="C30" t="s">
-        <v>111</v>
-      </c>
-      <c r="D30" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" t="s">
+        <v>207</v>
+      </c>
+      <c r="C31" t="s">
         <v>113</v>
       </c>
-      <c r="B31" t="s">
+      <c r="D31" t="s">
         <v>114</v>
-      </c>
-      <c r="C31" t="s">
-        <v>115</v>
-      </c>
-      <c r="D31" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" t="s">
+        <v>206</v>
+      </c>
+      <c r="C32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D32" t="s">
         <v>117</v>
-      </c>
-      <c r="B32" t="s">
-        <v>118</v>
-      </c>
-      <c r="C32" t="s">
-        <v>118</v>
-      </c>
-      <c r="D32" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
+        <v>118</v>
+      </c>
+      <c r="B33" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" t="s">
         <v>120</v>
       </c>
-      <c r="B33" t="s">
+      <c r="D33" t="s">
         <v>121</v>
-      </c>
-      <c r="C33" t="s">
-        <v>122</v>
-      </c>
-      <c r="D33" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
+        <v>122</v>
+      </c>
+      <c r="B34" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" t="s">
         <v>124</v>
       </c>
-      <c r="B34" t="s">
+      <c r="D34" t="s">
         <v>125</v>
-      </c>
-      <c r="C34" t="s">
-        <v>126</v>
-      </c>
-      <c r="D34" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" t="s">
         <v>128</v>
       </c>
-      <c r="B35" t="s">
+      <c r="D35" t="s">
         <v>129</v>
-      </c>
-      <c r="C35" t="s">
-        <v>130</v>
-      </c>
-      <c r="D35" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
+        <v>130</v>
+      </c>
+      <c r="B36" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" t="s">
         <v>132</v>
       </c>
-      <c r="B36" t="s">
+      <c r="D36" t="s">
         <v>133</v>
-      </c>
-      <c r="C36" t="s">
-        <v>134</v>
-      </c>
-      <c r="D36" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="B37" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="C37" t="s">
         <v>136</v>
       </c>
       <c r="D37" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B38" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C38" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D38" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="B39" t="s">
         <v>142</v>
@@ -2029,517 +1815,247 @@
         <v>143</v>
       </c>
       <c r="D39" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
+        <v>144</v>
+      </c>
+      <c r="B40" t="s">
         <v>145</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>146</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>147</v>
-      </c>
-      <c r="D40" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
+        <v>148</v>
+      </c>
+      <c r="B41" t="s">
         <v>149</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>150</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>151</v>
-      </c>
-      <c r="D41" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
+        <v>152</v>
+      </c>
+      <c r="B42" t="s">
         <v>153</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>154</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>155</v>
-      </c>
-      <c r="D42" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
+        <v>156</v>
+      </c>
+      <c r="B43" t="s">
         <v>157</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>158</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>159</v>
-      </c>
-      <c r="D43" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
+        <v>160</v>
+      </c>
+      <c r="B44" t="s">
         <v>161</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D44" t="s">
         <v>162</v>
-      </c>
-      <c r="C44" t="s">
-        <v>163</v>
-      </c>
-      <c r="D44" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
+        <v>163</v>
+      </c>
+      <c r="B45" t="s">
+        <v>164</v>
+      </c>
+      <c r="C45" t="s">
+        <v>164</v>
+      </c>
+      <c r="D45" t="s">
         <v>165</v>
       </c>
-      <c r="B45" t="s">
+    </row>
+    <row r="46" spans="1:4" ht="21">
+      <c r="A46" t="s">
         <v>166</v>
       </c>
-      <c r="C45" t="s">
+      <c r="B46" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D45" t="s">
+      <c r="C46" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D46" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
+    <row r="47" spans="1:4" ht="18">
+      <c r="A47" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B46" t="s">
-        <v>167</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="B47" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D46" t="s">
+      <c r="C47" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D47" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
+    <row r="48" spans="1:4" ht="18">
+      <c r="A48" t="s">
+        <v>175</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C48" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D48" t="s">
         <v>174</v>
       </c>
-      <c r="D47" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
+    </row>
+    <row r="49" spans="1:4" ht="18">
+      <c r="A49" t="s">
+        <v>177</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B48" t="s">
-        <v>177</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="C49" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D49" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
+    <row r="50" spans="1:4" ht="18">
+      <c r="A50" t="s">
         <v>180</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D50" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
+    <row r="51" spans="1:4" ht="18">
+      <c r="A51" t="s">
         <v>184</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>185</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D51" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
+    <row r="52" spans="1:4" ht="18">
+      <c r="A52" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D52" t="s">
         <v>188</v>
       </c>
-      <c r="B51" t="s">
-        <v>189</v>
-      </c>
-      <c r="C51" t="s">
-        <v>190</v>
-      </c>
-      <c r="D51" t="s">
+    </row>
+    <row r="53" spans="1:4" ht="18">
+      <c r="A53" t="s">
+        <v>192</v>
+      </c>
+      <c r="B53" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
-        <v>192</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="C53" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D53" t="s">
         <v>194</v>
       </c>
-      <c r="D52" t="s">
+    </row>
+    <row r="54" spans="1:4" ht="22">
+      <c r="A54" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
+      <c r="B54" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C54" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D54" t="s">
         <v>198</v>
       </c>
-      <c r="D53" t="s">
+    </row>
+    <row r="55" spans="1:4" ht="16">
+      <c r="A55" s="7" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
-        <v>161</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="B55" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="C54" t="s">
+    </row>
+    <row r="56" spans="1:4" ht="16">
+      <c r="A56" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D54" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
+      <c r="B56" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="B55" t="s">
+    </row>
+    <row r="57" spans="1:4" ht="16">
+      <c r="A57" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D57" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="C55" t="s">
-        <v>204</v>
-      </c>
-      <c r="D55" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" t="s">
-        <v>206</v>
-      </c>
-      <c r="B56" t="s">
-        <v>207</v>
-      </c>
-      <c r="C56" t="s">
-        <v>208</v>
-      </c>
-      <c r="D56" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
-        <v>210</v>
-      </c>
-      <c r="B57" t="s">
-        <v>211</v>
-      </c>
-      <c r="C57" t="s">
-        <v>212</v>
-      </c>
-      <c r="D57" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
-        <v>214</v>
-      </c>
-      <c r="B58" t="s">
-        <v>215</v>
-      </c>
-      <c r="C58" t="s">
-        <v>216</v>
-      </c>
-      <c r="D58" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="s">
-        <v>218</v>
-      </c>
-      <c r="B59" t="s">
-        <v>219</v>
-      </c>
-      <c r="C59" t="s">
-        <v>219</v>
-      </c>
-      <c r="D59" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="s">
-        <v>221</v>
-      </c>
-      <c r="B60" t="s">
-        <v>222</v>
-      </c>
-      <c r="C60" t="s">
-        <v>222</v>
-      </c>
-      <c r="D60" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="s">
-        <v>224</v>
-      </c>
-      <c r="B61" t="s">
-        <v>225</v>
-      </c>
-      <c r="C61" t="s">
-        <v>225</v>
-      </c>
-      <c r="D61" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="16.5">
-      <c r="A62" t="s">
-        <v>229</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C62" t="s">
-        <v>227</v>
-      </c>
-      <c r="D62" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="20.25">
-      <c r="A63" t="s">
-        <v>230</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D63" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="17.25">
-      <c r="A64" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D64" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="17.25">
-      <c r="A65" t="s">
-        <v>239</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="D65" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="17.25">
-      <c r="A66" t="s">
-        <v>241</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D66" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="17.25">
-      <c r="A67" t="s">
-        <v>244</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="D67" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="17.25">
-      <c r="A68" t="s">
-        <v>248</v>
-      </c>
-      <c r="B68" t="s">
-        <v>249</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="D68" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="17.25">
-      <c r="A69" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D69" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="17.25">
-      <c r="A70" t="s">
-        <v>256</v>
-      </c>
-      <c r="B70" t="s">
-        <v>255</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="D70" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="20.25">
-      <c r="A71" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D71" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="17.25">
-      <c r="A76" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" t="s">
-        <v>224</v>
-      </c>
-      <c r="B77" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" t="s">
-        <v>275</v>
-      </c>
-      <c r="B78" t="s">
-        <v>276</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C65" r:id="rId1" display="https://rstudio.github.io/rstudioaddins/" xr:uid="{98C75CCC-FA50-4F79-A6FB-8BC6D001FAB2}"/>
-    <hyperlink ref="C67" r:id="rId2" display="https://github.com/slowkow/ggrepel" xr:uid="{907BDD66-94B2-403E-81DB-08383849DD64}"/>
+    <hyperlink ref="C48" r:id="rId1" display="https://rstudio.github.io/rstudioaddins/" xr:uid="{98C75CCC-FA50-4F79-A6FB-8BC6D001FAB2}"/>
+    <hyperlink ref="C50" r:id="rId2" display="https://github.com/slowkow/ggrepel" xr:uid="{907BDD66-94B2-403E-81DB-08383849DD64}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>

--- a/Docs/git_packages.xlsx
+++ b/Docs/git_packages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmvera/Documents/repositorios/tidyviz/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7BB376-6638-2F4E-B2EC-BE7F727F80C7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663BA3D6-388B-1048-BF89-214E777AEA95}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="18440" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="210">
   <si>
     <t>Package</t>
   </si>
@@ -866,13 +866,39 @@
   </si>
   <si>
     <t>Convert your tabs to gists</t>
+  </si>
+  <si>
+    <r>
+      <t>karthik</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF586069"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF0366D6"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>holepunch</t>
+    </r>
+  </si>
+  <si>
+    <t>deploy docker on winder rstudio all project ready</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -929,6 +955,24 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF586069"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF0366D6"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF0366D6"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -951,7 +995,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
@@ -967,6 +1011,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1264,10 +1309,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="50.5" defaultRowHeight="15"/>
@@ -2050,6 +2095,14 @@
       </c>
       <c r="D57" s="7" t="s">
         <v>203</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="23">
+      <c r="A58" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
